--- a/example_data/EPA/label_corrected/000432-01536-20180410_2018-12-07_222400.xlsx
+++ b/example_data/EPA/label_corrected/000432-01536-20180410_2018-12-07_222400.xlsx
@@ -935,7 +935,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
